--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_21-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_21-58.xlsx
@@ -71,6 +71,9 @@
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
+    <t>AUGRAM 457MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
     <t>CALCIMATE 500 MG 12 CAPS.</t>
   </si>
   <si>
@@ -140,7 +146,10 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>D.DEP 1000 I.U. 30 CAPS.</t>
@@ -158,6 +167,9 @@
     <t>6:2</t>
   </si>
   <si>
+    <t>DELTARHINO NASAL SPRAY 15 ML</t>
+  </si>
+  <si>
     <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
   </si>
   <si>
@@ -188,6 +200,9 @@
     <t>EGYPRO 5 MG 30 TABLETS</t>
   </si>
   <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
     <t>EPIAO 4000I.U./ML VIAL</t>
   </si>
   <si>
@@ -299,9 +314,6 @@
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -335,6 +347,9 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
+    <t>T4-THYRO 100MCG 100 TABLETS</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -374,7 +389,10 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>7755:0</t>
+    <t>7753:0</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>XORIN 2GM VIAL</t>
@@ -389,9 +407,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>حلمه صدر ALGO</t>
   </si>
   <si>
@@ -429,6 +444,9 @@
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>معجون سيجنال عرض 50ملل</t>
   </si>
   <si>
     <t>Tuesday, 13 January, 2026 9:58 PM</t>
@@ -1203,17 +1221,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>9.5</v>
+        <v>67</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1221,7 +1239,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1229,17 +1247,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>120.28</v>
+        <v>9.5</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1255,13 +1273,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>28</v>
+        <v>120.28</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1281,7 +1299,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1299,7 +1317,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1307,13 +1325,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1333,13 +1351,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>144</v>
+        <v>79.680000000000007</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1351,7 +1369,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1359,17 +1377,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>76.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1377,7 +1395,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1385,17 +1403,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>120.28</v>
+        <v>144</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1411,17 +1429,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>40</v>
+        <v>76.799999999999997</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1437,17 +1455,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>89</v>
+        <v>120.28</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1469,7 +1487,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1489,17 +1507,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1507,7 +1525,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1515,13 +1533,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1533,7 +1551,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1541,17 +1559,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1559,7 +1577,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1567,17 +1585,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1585,7 +1603,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1593,17 +1611,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1611,7 +1629,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1619,17 +1637,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>200</v>
+        <v>25.5</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1637,7 +1655,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1645,13 +1663,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1671,17 +1689,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1689,7 +1707,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1697,17 +1715,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1723,17 +1741,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1741,7 +1759,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1749,13 +1767,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1767,7 +1785,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1775,17 +1793,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1793,7 +1811,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1801,17 +1819,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1827,13 +1845,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1853,17 +1871,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1879,13 +1897,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>128.66999999999999</v>
+        <v>16</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1897,7 +1915,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1905,17 +1923,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>13.5</v>
+        <v>41</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1923,7 +1941,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1931,17 +1949,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1949,7 +1967,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1957,17 +1975,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>78</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1983,17 +2001,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>162</v>
+        <v>13.5</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2009,17 +2027,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2035,17 +2053,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2061,17 +2079,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2079,7 +2097,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2087,13 +2105,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2105,7 +2123,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2113,17 +2131,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2131,7 +2149,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2139,17 +2157,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2157,7 +2175,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2165,17 +2183,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2183,7 +2201,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2191,17 +2209,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>55.670000000000002</v>
+        <v>26</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2209,7 +2227,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2217,17 +2235,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2243,17 +2261,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2269,13 +2287,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2295,17 +2313,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>79.200000000000003</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2327,11 +2345,11 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2347,13 +2365,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2379,11 +2397,11 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2399,13 +2417,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>31</v>
+        <v>79.200000000000003</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2425,17 +2443,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2443,7 +2461,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2451,13 +2469,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2469,7 +2487,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2483,11 +2501,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2495,7 +2513,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2503,17 +2521,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2529,13 +2547,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2547,7 +2565,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2555,17 +2573,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2573,7 +2591,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2581,13 +2599,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2599,7 +2617,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2607,17 +2625,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>440</v>
+        <v>36</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2625,7 +2643,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2633,17 +2651,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2651,7 +2669,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2659,17 +2677,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2677,7 +2695,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2685,13 +2703,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2703,7 +2721,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2711,17 +2729,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2729,7 +2747,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2737,17 +2755,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2763,17 +2781,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2789,13 +2807,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2815,13 +2833,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2847,11 +2865,11 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2867,17 +2885,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2893,13 +2911,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2919,17 +2937,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2945,17 +2963,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2971,17 +2989,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2997,17 +3015,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3029,11 +3047,11 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3049,17 +3067,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>30.09</v>
+        <v>12</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3075,17 +3093,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3101,13 +3119,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3127,17 +3145,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>48.719999999999999</v>
+        <v>80</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3153,13 +3171,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3179,13 +3197,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>26</v>
+        <v>30.09</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3205,17 +3223,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3231,13 +3249,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3257,17 +3275,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>17</v>
+        <v>48.719999999999999</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3275,7 +3293,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3283,17 +3301,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>22.5</v>
+        <v>66</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3301,7 +3319,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3309,13 +3327,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3327,7 +3345,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3335,17 +3353,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3353,7 +3371,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3361,17 +3379,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3379,7 +3397,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3387,17 +3405,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3405,7 +3423,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3413,17 +3431,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3439,17 +3457,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3457,7 +3475,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3465,17 +3483,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3483,7 +3501,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3491,17 +3509,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3509,7 +3527,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3517,13 +3535,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3535,7 +3553,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3543,13 +3561,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3561,7 +3579,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3569,17 +3587,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3587,7 +3605,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3595,17 +3613,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3613,7 +3631,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3627,45 +3645,201 @@
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="105" ht="26.25" customHeight="1">
-      <c r="K105" s="10">
-        <v>5870.71</v>
-      </c>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="11">
+    <row r="105" ht="25.5" customHeight="1">
+      <c r="A105" s="6">
+        <v>102</v>
+      </c>
+      <c t="s" r="B105" s="7">
+        <v>139</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c t="s" r="H105" s="8">
+        <v>134</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="9">
+        <v>15</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c t="s" r="N105" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="24.75" customHeight="1">
+      <c r="A106" s="6">
+        <v>103</v>
+      </c>
+      <c t="s" r="B106" s="7">
         <v>140</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c t="s" r="F106" s="12">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c t="s" r="H106" s="8">
+        <v>9</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="9">
+        <v>0</v>
+      </c>
+      <c r="M106" s="9"/>
+      <c t="s" r="N106" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="6">
+        <v>104</v>
+      </c>
+      <c t="s" r="B107" s="7">
         <v>141</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="13"/>
-      <c t="s" r="I106" s="14">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c t="s" r="H107" s="8">
+        <v>134</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="9">
+        <v>8</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c t="s" r="N107" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="25.5" customHeight="1">
+      <c r="A108" s="6">
+        <v>105</v>
+      </c>
+      <c t="s" r="B108" s="7">
         <v>142</v>
       </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c t="s" r="H108" s="8">
+        <v>143</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9">
+        <v>24</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c t="s" r="N108" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="24.75" customHeight="1">
+      <c r="A109" s="6">
+        <v>106</v>
+      </c>
+      <c t="s" r="B109" s="7">
+        <v>144</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c t="s" r="H109" s="8">
+        <v>9</v>
+      </c>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="9">
+        <v>20</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c t="s" r="N109" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="25.5" customHeight="1">
+      <c r="A110" s="6">
+        <v>107</v>
+      </c>
+      <c t="s" r="B110" s="7">
+        <v>145</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c t="s" r="H110" s="8">
+        <v>12</v>
+      </c>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="9">
+        <v>40</v>
+      </c>
+      <c r="M110" s="9"/>
+      <c t="s" r="N110" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="K111" s="10">
+        <v>6200.8900000000003</v>
+      </c>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="11">
+        <v>146</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c t="s" r="F112" s="12">
+        <v>147</v>
+      </c>
+      <c r="G112" s="12"/>
+      <c r="H112" s="13"/>
+      <c t="s" r="I112" s="14">
+        <v>148</v>
+      </c>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="314">
+  <mergeCells count="332">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3976,10 +4150,28 @@
     <mergeCell ref="B104:G104"/>
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I106:N106"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="K111:N111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="I112:N112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
